--- a/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
+++ b/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Entry Date</t>
   </si>
@@ -43,16 +43,7 @@
     <t>CR_REV_ID</t>
   </si>
   <si>
-    <t>21/10/2022</t>
-  </si>
-  <si>
     <t>CR_REV_001</t>
-  </si>
-  <si>
-    <t>Salma saeed</t>
-  </si>
-  <si>
-    <t>V1.0</t>
   </si>
 </sst>
 </file>
@@ -410,7 +401,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -451,17 +442,11 @@
     </row>
     <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>

--- a/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
+++ b/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SB\ML_SWProcess_Documents\input_documents\CR\Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="9384"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Entry Date</t>
   </si>
@@ -43,7 +48,40 @@
     <t>CR_REV_ID</t>
   </si>
   <si>
-    <t>CR_REV_001</t>
+    <t>CR_REV_0001</t>
+  </si>
+  <si>
+    <t>Esraa Abdelnaby</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>1//Table of content/</t>
+  </si>
+  <si>
+    <t>Reference Documentation: ……………………………………………1</t>
+  </si>
+  <si>
+    <t>This element should be from table of content</t>
+  </si>
+  <si>
+    <t>CR_REV_0002</t>
+  </si>
+  <si>
+    <t>Mapping Customer’s ID: …..………………………………………….3</t>
+  </si>
+  <si>
+    <t>it should be " Mapping Customer Requirements"</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Alignment problem</t>
+  </si>
+  <si>
+    <t>All tables and headers shall be aligned together</t>
   </si>
 </sst>
 </file>
@@ -133,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,19 +186,183 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+          <bgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -400,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -440,41 +642,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6">
+        <v>44859</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44859</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44859</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -540,14 +782,44 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A5:H9">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$H5 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:H9">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$H5= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:H2 A3">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="0" priority="4">
+  <conditionalFormatting sqref="A2:H2 A3">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$H2= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$H3 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H3">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$H3= "Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:H4">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$H4 = "Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:H4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H4= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
+++ b/input_documents/CR/Review/PO_SB_CR_ML_Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Entry Date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>All tables and headers shall be aligned together</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -211,29 +214,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF57BB8A"/>
           <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -280,75 +260,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF57BB8A"/>
           <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -602,8 +513,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -691,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -783,42 +694,42 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A5:H9">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$H5 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:H9">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$H5= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2 A3">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2 A3">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$H3 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H3">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$H3= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H4 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$H4= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
